--- a/OUTPUT.xlsx
+++ b/OUTPUT.xlsx
@@ -470,7 +470,7 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Καύσιμα</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>ΜΥΡΤΕΑ ΑΝΩΝΥΜΟΣ ΕΤΑΙΡΕΙΑ ΕΜΠΟΡΙΟΥ, ΑΠΟΘΗΚΕΥΣΕΩΣ, ΑΝΤΙΠΡΟΣΩΠΕΙΩΝ ΠΕΤΡΕΛΑΙΟΕΙΔΩΝ ΚΑΙ ΠΑΡΟΧΗΣ ΥΠΗΡΕΣΙΩΝ</t>
+          <t>ΜΥΡΤΕΑ ΑΝΩΝΥΜΟΣ ΕΤΑΙΡΕΙΑ ΕΜΠΟΡΙΟΥ</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
@@ -555,7 +555,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Τρόφιμα</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Καύσιμα</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Τρόφιμα</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Είδη</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -893,11 +893,6 @@
           <t>2710</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>998727941</t>
@@ -980,7 +975,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Είδη</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1065,7 +1060,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Καύσιμα</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1088,7 +1083,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>ΜΥΡΤΕΑ ΑΝΩΝΥΜΟΣ ΕΤΑΙΡΕΙΑ ΕΜΠΟΡΙΟΥ, ΑΠΟΘΗΚΕΥΣΕΩΣ, ΑΝΤΙΠΡΟΣΩΠΕΙΩΝ ΠΕΤΡΕΛΑΙΟΕΙΔΩΝ ΚΑΙ ΠΑΡΟΧΗΣ ΥΠΗΡΕΣΙΩΝ</t>
+          <t>ΜΥΡΤΕΑ ΑΝΩΝΥΜΟΣ ΕΤΑΙΡΕΙΑ ΕΜΠΟΡΙΟΥ</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1150,7 +1145,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Eίδη</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1235,7 +1230,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Είδη</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1320,7 +1315,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Τρόφιμα</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1405,7 +1400,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Τρόφιμα</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1490,7 +1485,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Τρόφιμα</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1575,7 +1570,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Είδη</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1660,7 +1655,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Τρόφιμα</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1745,7 +1740,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Τρόφιμα</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1828,11 +1823,6 @@
           <t>530</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>998727941</t>
@@ -1913,11 +1903,6 @@
           <t>8076</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>998727941</t>
@@ -2000,7 +1985,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Τρόφιμα</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2042,17 +2027,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-07-29</t>
+          <t>2022-08-09</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16.13€</t>
+          <t>29.03€</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3.87€</t>
+          <t>6.97€</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2075,17 +2060,17 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ ΕΣΟΔΟΥ</t>
+          <t>ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ (ΕΜΠΟΡΕΥΜΑΤΩΝ)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>371332</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Καύσιμα</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2103,21 +2088,21 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>801081317</t>
+          <t>998475585</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>ΦΙΞ ΑΝΤ ΚΕΙΣ ΥΠΗΡΕΣΙΕΣ ΚΙΝΗΤΗΣ ΤΗΛΕΦΩΝΙΑΣ ΙΔΙΩΤΙΚΗ ΚΕΦΑΛΑΙΟΥΧΙΚΗ ΕΤΑΙΡΙΑ</t>
+          <t>ΜΑΚΡΑΙΩΝ ΜΟΝΟΠΡΟΣΩΠΗ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ ΛΙΑΝΙΚΟΥ ΕΜΠΟΡΙΟΥ ΜΕΤΑΦΟΡΑΣ</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>20.0€</t>
+          <t>36.0€</t>
         </is>
       </c>
       <c r="R20">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FFR180164630000094226C2303F227655E6EFE8B3AF1192FBF410E5814120.00")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FGG16015477000107761570A9F38E32376E44C234EB1B2747CF9973305336.00")</f>
         <v/>
       </c>
     </row>
@@ -2127,17 +2112,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-07-05</t>
+          <t>2022-07-29</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17.74€</t>
+          <t>16.13€</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4.26€</t>
+          <t>3.87€</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2170,7 +2155,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Eίδη</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2188,21 +2173,21 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>112072296</t>
+          <t>801081317</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>ΤΟΛΙΑΣ ΗΛΙΑΣ-ΓΕΡΑΣΙΜΟΣ ΤΟΥ ΙΩΑΝΝΗ</t>
+          <t>ΦΙΞ ΑΝΤ ΚΕΙΣ ΥΠΗΡΕΣΙΕΣ ΚΙΝΗΤΗΣ ΤΗΛΕΦΩΝΙΑΣ ΙΔΙΩΤΙΚΗ ΚΕΦΑΛΑΙΟΥΧΙΚΗ ΕΤΑΙΡΙΑ</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>22.0€</t>
+          <t>20.0€</t>
         </is>
       </c>
       <c r="R21">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=CCQ2000628900010449F23E62CA0B7FD515188FCBE9A8A0944711CE919522.00")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FFR180164630000094226C2303F227655E6EFE8B3AF1192FBF410E5814120.00")</f>
         <v/>
       </c>
     </row>
@@ -2212,17 +2197,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2022-07-10</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>20.1€</t>
+          <t>17.74€</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.63€</t>
+          <t>4.26€</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2255,7 +2240,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Είδη</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2273,21 +2258,21 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>095735628</t>
+          <t>112072296</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>ΑΡΤΟΠΟΙΪΑ ΣΟΥΠΕΡ ΜΑΡΚΕΤ  Α. ΓΙΑΛΕΡΝΙΟΥ ΗΠΕΙΡΩΤΙΣΑ ΕΤΑΙΡΕΙΑ ΠΕΡΙΟΡΙΣΜΕΝΗΣ ΕΥΘΥΝΗΣ</t>
+          <t>ΤΟΛΙΑΣ ΗΛΙΑΣ-ΓΕΡΑΣΙΜΟΣ ΤΟΥ ΙΩΑΝΝΗ</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>22.73€</t>
+          <t>22.0€</t>
         </is>
       </c>
       <c r="R22">
-        <f>HYPERLINK("https://www1.gsis.gr/tameiakes/myweb/q1.php?SIG=CFC180002450075200018990F422D4F48A65624F7D8522BD7B8A8DD130622.73")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=CCQ2000628900010449F23E62CA0B7FD515188FCBE9A8A0944711CE919522.00")</f>
         <v/>
       </c>
     </row>
@@ -2297,17 +2282,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022-07-03</t>
+          <t>2022-07-10</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>21.68€</t>
+          <t>20.1€</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.82€</t>
+          <t>2.63€</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2340,7 +2325,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Τρόφιμα</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2358,21 +2343,21 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>081951338</t>
+          <t>095735628</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>ΚΩΝ/ΝΟΣ ΠΑΠΑΣΤΑΥΡΟΥ - ΑΝΝΑ ΦΩΤΟΥ Ο.Ε.</t>
+          <t>ΑΡΤΟΠΟΙΪΑ ΣΟΥΠΕΡ ΜΑΡΚΕΤ Α. ΓΙΑΛΕΡΝΙΟΥ ΗΠΕΙΡΩΤΙΣΑ ΕΤΑΙΡΕΙΑ ΠΕΡΙΟΡΙΣΜΕΝΗΣ ΕΥΘΥΝΗΣ</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>24.5€</t>
+          <t>22.73€</t>
         </is>
       </c>
       <c r="R23">
-        <f>HYPERLINK("https://www1.gsis.gr/tameiakes/myweb/q1.php?SIG=CCE2000072600005126234288049FE4CC12BA3239675C1631C3E1392ED824.50")</f>
+        <f>HYPERLINK("https://www1.gsis.gr/tameiakes/myweb/q1.php?SIG=CFC180002450075200018990F422D4F48A65624F7D8522BD7B8A8DD130622.73")</f>
         <v/>
       </c>
     </row>
@@ -2382,17 +2367,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022-07-26</t>
+          <t>2022-07-03</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>24.22€</t>
+          <t>21.68€</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3.29€</t>
+          <t>2.82€</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2415,17 +2400,17 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ ΠΑΡΟΧΗΣ ΥΠΗΡΕΣΙΩΝ - ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ</t>
+          <t>ΑΠΟΔΕΙΞΗ ΕΣΟΔΟΥ</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>19449</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Τρόφιμα</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2443,21 +2428,21 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>094025817</t>
+          <t>081951338</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>"ΑΛΦΑ-ΒΗΤΑ" ΒΑΣΙΛΟΠΟΥΛΟΣ ΜΟΝΟΠΡΟΣΩΠΗ ΑΝΩΝΥΜΗ ΕΤΑΙΡΙΑ</t>
+          <t>ΚΩΝ/ΝΟΣ ΠΑΠΑΣΤΑΥΡΟΥ - ΑΝΝΑ ΦΩΤΟΥ Ο.Ε.</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>27.51€</t>
+          <t>24.5€</t>
         </is>
       </c>
       <c r="R24">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FGG180206330055105282D8C3164CD06B09CF7FF0BE7E28E33A3E9BFDC427.51")</f>
+        <f>HYPERLINK("https://www1.gsis.gr/tameiakes/myweb/q1.php?SIG=CCE2000072600005126234288049FE4CC12BA3239675C1631C3E1392ED824.50")</f>
         <v/>
       </c>
     </row>
@@ -2467,17 +2452,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2022-07-26</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>23.97€</t>
+          <t>24.22€</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3.43€</t>
+          <t>3.29€</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2500,17 +2485,17 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ (ΕΜΠΟΡΕΥΜΑΤΩΝ)</t>
+          <t>ΑΠΟΔΕΙΞΗ ΠΑΡΟΧΗΣ ΥΠΗΡΕΣΙΩΝ - ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>68853</t>
+          <t>19449</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Τρόφιμα</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2528,21 +2513,21 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>094471750</t>
+          <t>094025817</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>ΧΑΡΑΛΑΜΠΟΣ ΒΕΝΕΤΗΣ ΑΝΩΝΥΜΗ ΒΙΟΜΗΧΑΝΙΚΗ &amp; ΕΜΠΟΡΙΚΗ ΕΤΑΙΡΕΙΑ ΑΡΤΟΠΟΙΙΑΣ - ΖΑΧΑΡΟΠΛΑΣΤΙΚΗΣ</t>
+          <t>ΑΛΦΑ-ΒΗΤΑ ΒΑΣΙΛΟΠΟΥΛΟΣ ΜΟΝΟΠΡΟΣΩΠΗ ΑΝΩΝΥΜΗ ΕΤΑΙΡΙΑ</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>27.4€</t>
+          <t>27.51€</t>
         </is>
       </c>
       <c r="R25">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=CCC190037530059648179EBC91A7617D40FA83C20EC2DE505ECB71C871127,40")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FGG180206330055105282D8C3164CD06B09CF7FF0BE7E28E33A3E9BFDC427.51")</f>
         <v/>
       </c>
     </row>
@@ -2552,17 +2537,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022-07-31</t>
+          <t>2022-07-08</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>8.94€</t>
+          <t>23.97€</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1.16€</t>
+          <t>3.43€</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2590,12 +2575,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>493845</t>
+          <t>68853</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Τρόφιμα</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2618,16 +2603,16 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>ΧΑΡΑΛΑΜΠΟΣ ΒΕΝΕΤΗΣ ΑΝΩΝΥΜΗ ΒΙΟΜΗΧΑΝΙΚΗ &amp; ΕΜΠΟΡΙΚΗ ΕΤΑΙΡΕΙΑ ΑΡΤΟΠΟΙΙΑΣ - ΖΑΧΑΡΟΠΛΑΣΤΙΚΗΣ</t>
+          <t>ΒΕΝΕΤΗΣ ΑΝΩΝΥΜΗ ΒΙΟΜΗΧΑΝΙΚΗ ΚΑΙ ΕΜΠΟΡΙΚΗ ΕΤΑΙΡΕΙΑ ΤΡΟΦΙΜΩΝ</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>10.1€</t>
+          <t>27.4€</t>
         </is>
       </c>
       <c r="R26">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=CCC1800178800616140BC2A11C4B9C4B40238A4155E7FD78414BE7E82D910,10")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=CCC190037530059648179EBC91A7617D40FA83C20EC2DE505ECB71C871127,40")</f>
         <v/>
       </c>
     </row>
@@ -2637,17 +2622,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022-07-18</t>
+          <t>2022-07-02</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>9.11€</t>
+          <t>24.11€</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.18€</t>
+          <t>5.79€</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2670,17 +2655,17 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ ΠΑΡΟΧΗΣ ΥΠΗΡΕΣΙΩΝ - ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ</t>
+          <t>ΑΠΟΔΕΙΞΗ ΕΣΟΔΟΥ</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>97484</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Φάρμακα-Παραφάρμακα</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2698,21 +2683,21 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>800764388</t>
+          <t>139563116</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>ΕΛΛΗΝΙΚΕΣ ΥΠΕΡΑΓΟΡΕΣ ΣΚΛΑΒΕΝΙΤΗΣ ΑΝΩΝΥΜΗ ΕΜΠΟΡΙΚΗ ΕΤΑΙΡΕΙΑ</t>
+          <t>ΚΑΤΣΟΥΛΩΤΟΣ ΚΩΝΣΤΑΝΤΙΝΟΣ</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>10.29€</t>
+          <t>29.9€</t>
         </is>
       </c>
       <c r="R27">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=DLD2001066400097484B9D65C9E56EF36818318FAE48D99D14DA7FB680110.29")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=DLQ1900044500019122E7435B03A357F776824C541B5A232A4E8E40708129.90")</f>
         <v/>
       </c>
     </row>
@@ -2722,17 +2707,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022-07-16</t>
+          <t>2022-07-31</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>9.05€</t>
+          <t>8.94€</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.27€</t>
+          <t>1.16€</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2760,12 +2745,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>138594</t>
+          <t>493845</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Τρόφιμα</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2783,21 +2768,21 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>801062604</t>
+          <t>094471750</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>ΦΑΡΜΑΚΕΙΟ ΘΕΟΔΩΡΟΥ ΚΑΜΠΟΛΗ ΚΑΙ ΣΙΑ ΟΜΟΡΡΥΜΗ ΕΤΑΙΡΕΙΑ</t>
+          <t>ΒΕΝΕΤΗΣ ΑΝΩΝΥΜΗ ΒΙΟΜΗΧΑΝΙΚΗ ΚΑΙ ΕΜΠΟΡΙΚΗ ΕΤΑΙΡΕΙΑ ΤΡΟΦΙΜΩΝ</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>10.32€</t>
+          <t>10.1€</t>
         </is>
       </c>
       <c r="R28">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=CFT2000278600018352BC90EB07D3C4E775751DB15CA70BFFEB71802BA710.32")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=CCC1800178800616140BC2A11C4B9C4B40238A4155E7FD78414BE7E82D910,10")</f>
         <v/>
       </c>
     </row>
@@ -2807,17 +2792,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022-07-25</t>
+          <t>2022-07-18</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>9.47€</t>
+          <t>9.11€</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.23€</t>
+          <t>1.18€</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2840,17 +2825,17 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ (ΕΜΠΟΡΕΥΜΑΤΩΝ)</t>
+          <t>ΑΠΟΔΕΙΞΗ ΠΑΡΟΧΗΣ ΥΠΗΡΕΣΙΩΝ - ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>13449</t>
+          <t>97484</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Τρόφιμα</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2868,21 +2853,21 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>801408110</t>
+          <t>800764388</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>ΣΟΥΒΛΑΚΙ ΚΑΙΣΑΡΙΑΝΗ Ε.Ε.</t>
+          <t>ΕΛΛΗΝΙΚΕΣ ΥΠΕΡΑΓΟΡΕΣ ΣΚΛΑΒΕΝΙΤΗΣ ΑΝΩΝΥΜΗ ΕΜΠΟΡΙΚΗ ΕΤΑΙΡΕΙΑ</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>10.7€</t>
+          <t>10.29€</t>
         </is>
       </c>
       <c r="R29">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=DLD22023343000183585C035961DB24401FB29FF89912986581505BEA7B10.70")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=DLD2001066400097484B9D65C9E56EF36818318FAE48D99D14DA7FB680110.29")</f>
         <v/>
       </c>
     </row>
@@ -2892,17 +2877,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2022-07-26</t>
+          <t>2022-07-16</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>9.87€</t>
+          <t>9.05€</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.28€</t>
+          <t>1.27€</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2925,17 +2910,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ ΠΑΡΟΧΗΣ ΥΠΗΡΕΣΙΩΝ - ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ</t>
+          <t>ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ (ΕΜΠΟΡΕΥΜΑΤΩΝ)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>198093</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t>138594</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2953,21 +2933,21 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>800764388</t>
+          <t>801062604</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>ΕΛΛΗΝΙΚΕΣ ΥΠΕΡΑΓΟΡΕΣ ΣΚΛΑΒΕΝΙΤΗΣ ΑΝΩΝΥΜΗ ΕΜΠΟΡΙΚΗ ΕΤΑΙΡΕΙΑ</t>
+          <t>ΦΑΡΜΑΚΕΙΟ ΘΕΟΔΩΡΟΥ ΚΑΜΠΟΛΗ ΚΑΙ ΣΙΑ ΟΜΟΡΡΥΜΗ ΕΤΑΙΡΕΙΑ</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>11.15€</t>
+          <t>10.32€</t>
         </is>
       </c>
       <c r="R30">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=DLD2000946600198097EB388902FA2E27917E765D8C4980AA878C8E23CE11.15")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=CFT2000278600018352BC90EB07D3C4E775751DB15CA70BFFEB71802BA710.32")</f>
         <v/>
       </c>
     </row>
@@ -2977,17 +2957,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022-07-14</t>
+          <t>2022-07-25</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>9.68€</t>
+          <t>9.47€</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2.32€</t>
+          <t>1.23€</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3010,17 +2990,17 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ ΕΣΟΔΟΥ</t>
+          <t>ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ (ΕΜΠΟΡΕΥΜΑΤΩΝ)</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13449</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Τρόφιμα</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -3038,21 +3018,21 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>081556781</t>
+          <t>801408110</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>ΣΚΑΦΙΔΑΣ Ε - ΠΕΠΠΑ ΑΦΟΙ ΑΕ</t>
+          <t>ΣΟΥΒΛΑΚΙ ΚΑΙΣΑΡΙΑΝΗ Ε.Ε.</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>12.0€</t>
+          <t>10.7€</t>
         </is>
       </c>
       <c r="R31">
-        <f>HYPERLINK("https://www1.gsis.gr/tameiakes/myweb/q1.php?SIG=FFS19008417000270037D52F383C6961DFF17F904753BE14B6E33304A1512.00")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=DLD22023343000183585C035961DB24401FB29FF89912986581505BEA7B10.70")</f>
         <v/>
       </c>
     </row>
@@ -3062,17 +3042,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022-07-19</t>
+          <t>2022-07-23</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>10.38€</t>
+          <t>10.7€</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.7€</t>
+          <t>0.1€</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3095,17 +3075,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ ΠΑΡΟΧΗΣ ΥΠΗΡΕΣΙΩΝ - ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ</t>
+          <t>ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ (ΕΜΠΟΡΕΥΜΑΤΩΝ)</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>196202</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t>178411</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -3123,21 +3098,16 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>800764388</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>ΕΛΛΗΝΙΚΕΣ ΥΠΕΡΑΓΟΡΕΣ ΣΚΛΑΒΕΝΙΤΗΣ ΑΝΩΝΥΜΗ ΕΜΠΟΡΙΚΗ ΕΤΑΙΡΕΙΑ</t>
+          <t>046398314</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>12.08€</t>
+          <t>10.8€</t>
         </is>
       </c>
       <c r="R32">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=DLD2000946600196206752A8D1A135CBA48E7E3EDEFBB693E65A2D4062012.08")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=DLH2000327900088021AFF0F4B9D265F62338F2E1EEA85D800A1EBA148510.80")</f>
         <v/>
       </c>
     </row>
@@ -3147,17 +3117,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022-07-22</t>
+          <t>2022-07-26</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>11.42€</t>
+          <t>9.87€</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.48€</t>
+          <t>1.28€</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3180,17 +3150,17 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ ΕΣΟΔΟΥ</t>
+          <t>ΑΠΟΔΕΙΞΗ ΠΑΡΟΧΗΣ ΥΠΗΡΕΣΙΩΝ - ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>198093</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Τρόφιμα</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3208,21 +3178,21 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>800478730</t>
+          <t>800764388</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>ΕΛΕΝΑ Α. ΚΟΥΡΤΗΣ ΚΑΙ ΣΙΑ ΕΕ</t>
+          <t>ΕΛΛΗΝΙΚΕΣ ΥΠΕΡΑΓΟΡΕΣ ΣΚΛΑΒΕΝΙΤΗΣ ΑΝΩΝΥΜΗ ΕΜΠΟΡΙΚΗ ΕΤΑΙΡΕΙΑ</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>12.9€</t>
+          <t>11.15€</t>
         </is>
       </c>
       <c r="R33">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FFH16003318000988084C0471E1F484A0487DBDB055E25736E63F102D2B12.90")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=DLD2000946600198097EB388902FA2E27917E765D8C4980AA878C8E23CE11.15")</f>
         <v/>
       </c>
     </row>
@@ -3232,17 +3202,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022-07-05</t>
+          <t>2022-07-14</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>11.63€</t>
+          <t>9.68€</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.53€</t>
+          <t>2.32€</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3265,17 +3235,17 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ (ΕΜΠΟΡΕΥΜΑΤΩΝ)</t>
+          <t>ΑΠΟΔΕΙΞΗ ΕΣΟΔΟΥ</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>130800</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Είδη</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3293,21 +3263,21 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>998771189</t>
+          <t>081556781</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>ΜΑΡΚΕΤ ΙΝ ΑΝΩΝΥΜΗ ΕΜΠΟΡΟΒΙΟΜΗΧΑΝΙΚΗ ΕΤΑΙΡΕΙΑ ΑΝΑΛΩΣΙΜΩΝ ΠΡΟΪΟΝΤΩΝ - ΣΥΣΚΕΥΑΣΙΩΝ - ΔΙΑΝΟΜΩΝ - ΜΕΤΑΦΟΡΩΝ - ΕΙΣΑΓΩΓΩΝ - ΕΞΑΓΩΓΩΝ</t>
+          <t>ΣΚΑΦΙΔΑΣ Ε - ΠΕΠΠΑ ΑΦΟΙ ΑΕ</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>13.16€</t>
+          <t>12.0€</t>
         </is>
       </c>
       <c r="R34">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=DLD2001149200275370815851338816402AC165FEDD812017A2031875D713.16")</f>
+        <f>HYPERLINK("https://www1.gsis.gr/tameiakes/myweb/q1.php?SIG=FFS19008417000270037D52F383C6961DFF17F904753BE14B6E33304A1512.00")</f>
         <v/>
       </c>
     </row>
@@ -3317,17 +3287,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-19</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>11.59€</t>
+          <t>10.38€</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1.64€</t>
+          <t>1.7€</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3355,12 +3325,12 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>19144</t>
+          <t>196202</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Τρόφιμα</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3378,21 +3348,21 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>094025817</t>
+          <t>800764388</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>"ΑΛΦΑ-ΒΗΤΑ" ΒΑΣΙΛΟΠΟΥΛΟΣ ΜΟΝΟΠΡΟΣΩΠΗ ΑΝΩΝΥΜΗ ΕΤΑΙΡΙΑ</t>
+          <t>ΕΛΛΗΝΙΚΕΣ ΥΠΕΡΑΓΟΡΕΣ ΣΚΛΑΒΕΝΙΤΗΣ ΑΝΩΝΥΜΗ ΕΜΠΟΡΙΚΗ ΕΤΑΙΡΕΙΑ</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>13.23€</t>
+          <t>12.08€</t>
         </is>
       </c>
       <c r="R35">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FGG180206330054091282F80578C9BEA89DC0A0355E5C001F108982717D13.23")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=DLD2000946600196206752A8D1A135CBA48E7E3EDEFBB693E65A2D4062012.08")</f>
         <v/>
       </c>
     </row>
@@ -3402,17 +3372,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022-07-29</t>
+          <t>2022-07-22</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>12.65€</t>
+          <t>11.42€</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.76€</t>
+          <t>1.48€</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3445,7 +3415,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Τρόφιμα</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3463,21 +3433,21 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>094277812</t>
+          <t>800478730</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Σ. ΠΑΤΑΚΗΣ ΑΝΩΝΥΜΗ ΕΚΔΟΤΙΚΗ ΕΜΠΟΡΙΚΗ ΚΑΙ ΔΙΑΝΕΜΗΤΙΚΗ ΕΤΑΙΡΕΙΑ</t>
+          <t>ΕΛΕΝΑ Α. ΚΟΥΡΤΗΣ ΚΑΙ ΣΙΑ ΕΕ</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>13.41€</t>
+          <t>12.9€</t>
         </is>
       </c>
       <c r="R36">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=DSE1900001500057802F626CA44B22A3E92A11069E9F1BC632EFF8AB89513.41")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FFH16003318000988084C0471E1F484A0487DBDB055E25736E63F102D2B12.90")</f>
         <v/>
       </c>
     </row>
@@ -3487,17 +3457,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2022-07-02</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>12.1€</t>
+          <t>11.63€</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2.9€</t>
+          <t>1.53€</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3520,17 +3490,17 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ ΕΣΟΔΟΥ</t>
+          <t>ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ (ΕΜΠΟΡΕΥΜΑΤΩΝ)</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>130800</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Τρόφιμα</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -3548,21 +3518,21 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>081556781</t>
+          <t>998771189</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>ΣΚΑΦΙΔΑΣ Ε - ΠΕΠΠΑ ΑΦΟΙ ΑΕ</t>
+          <t>ΜΑΡΚΕΤ ΙΝ ΑΝΩΝΥΜΗ ΕΜΠΟΡΟΒΙΟΜΗΧΑΝΙΚΗ ΕΤΑΙΡΕΙΑ ΑΝΑΛΩΣΙΜΩΝ ΠΡΟΪΟΝΤΩΝ - ΣΥΣΚΕΥΑΣΙΩΝ - ΔΙΑΝΟΜΩΝ - ΜΕΤΑΦΟΡΩΝ - ΕΙΣΑΓΩΓΩΝ - ΕΞΑΓΩΓΩΝ</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>15.0€</t>
+          <t>13.16€</t>
         </is>
       </c>
       <c r="R37">
-        <f>HYPERLINK("https://www1.gsis.gr/tameiakes/myweb/q1.php?SIG=FFS1900841700026633C37C8E9B6B194CC5F379D3B5A1D1D2A1238C5BD615.00")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=DLD2001149200275370815851338816402AC165FEDD812017A2031875D713.16")</f>
         <v/>
       </c>
     </row>
@@ -3572,17 +3542,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2022-07-16</t>
+          <t>2022-07-04</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>13.88€</t>
+          <t>11.59€</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1.82€</t>
+          <t>1.64€</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3605,17 +3575,17 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ (ΕΜΠΟΡΕΥΜΑΤΩΝ)</t>
+          <t>ΑΠΟΔΕΙΞΗ ΠΑΡΟΧΗΣ ΥΠΗΡΕΣΙΩΝ - ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>19144</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Τρόφιμα</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3633,21 +3603,21 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>094386010</t>
+          <t>094025817</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>PREMIER CAPITAL ΕΛΛΑΣ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ - Ίδρυση, Εκμετάλλευση και Λειτουργία Εστιατορίων</t>
+          <t>ΑΛΦΑ-ΒΗΤΑ ΒΑΣΙΛΟΠΟΥΛΟΣ ΜΟΝΟΠΡΟΣΩΠΗ ΑΝΩΝΥΜΗ ΕΤΑΙΡΙΑ</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>15.7€</t>
+          <t>13.23€</t>
         </is>
       </c>
       <c r="R38">
-        <f>HYPERLINK("https://www1.gsis.gr/tameiakes/myweb/q1.php?SIG=DLD190046530035552635587E17D43E8DD13AB3FDE05CD4C4A5F4EA981E15.70")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FGG180206330054091282F80578C9BEA89DC0A0355E5C001F108982717D13.23")</f>
         <v/>
       </c>
     </row>
@@ -3657,17 +3627,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2022-07-16</t>
+          <t>2022-07-29</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>14.57€</t>
+          <t>12.65€</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2.94€</t>
+          <t>0.76€</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3690,17 +3660,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ ΠΑΡΟΧΗΣ ΥΠΗΡΕΣΙΩΝ - ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ</t>
+          <t>ΑΠΟΔΕΙΞΗ ΕΣΟΔΟΥ</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>303130</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t>0</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3718,21 +3683,21 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>094063140</t>
+          <t>094277812</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Διαμαντής Μασούτης Α.Ε. ΣΟΥΠΕΡ ΜΑΡΚΕΤ</t>
+          <t>Σ. ΠΑΤΑΚΗΣ ΑΝΩΝΥΜΗ ΕΚΔΟΤΙΚΗ ΕΜΠΟΡΙΚΗ ΚΑΙ ΔΙΑΝΕΜΗΤΙΚΗ ΕΤΑΙΡΕΙΑ</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>17.51€</t>
+          <t>13.41€</t>
         </is>
       </c>
       <c r="R39">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=DLD1900145200271178DC367007FBA309AC05A6262A6C7268D90E13361017.51")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=DSE1900001500057802F626CA44B22A3E92A11069E9F1BC632EFF8AB89513.41")</f>
         <v/>
       </c>
     </row>
@@ -3742,17 +3707,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2022-07-14</t>
+          <t>2022-07-02</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>14.44€</t>
+          <t>12.1€</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3.46€</t>
+          <t>2.9€</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3785,7 +3750,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Είδη</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3813,11 +3778,11 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>17.9€</t>
+          <t>15.0€</t>
         </is>
       </c>
       <c r="R40">
-        <f>HYPERLINK("https://www1.gsis.gr/tameiakes/myweb/q1.php?SIG=FFS1900841700027024893234F73A04959598BA715B007357F205A61B1F17.90")</f>
+        <f>HYPERLINK("https://www1.gsis.gr/tameiakes/myweb/q1.php?SIG=FFS1900841700026633C37C8E9B6B194CC5F379D3B5A1D1D2A1238C5BD615.00")</f>
         <v/>
       </c>
     </row>
@@ -3827,17 +3792,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2022-07-18</t>
+          <t>2022-07-16</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>15.34€</t>
+          <t>13.88€</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2.58€</t>
+          <t>1.82€</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3860,17 +3825,17 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ ΠΑΡΟΧΗΣ ΥΠΗΡΕΣΙΩΝ - ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ</t>
+          <t>ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ (ΕΜΠΟΡΕΥΜΑΤΩΝ)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>195934</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Τρόφιμα</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3888,21 +3853,21 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>800764388</t>
+          <t>094386010</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>ΕΛΛΗΝΙΚΕΣ ΥΠΕΡΑΓΟΡΕΣ ΣΚΛΑΒΕΝΙΤΗΣ ΑΝΩΝΥΜΗ ΕΜΠΟΡΙΚΗ ΕΤΑΙΡΕΙΑ</t>
+          <t>PREMIER CAPITAL ΕΛΛΑΣ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ - Ίδρυση</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>17.92€</t>
+          <t>15.7€</t>
         </is>
       </c>
       <c r="R41">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=DLD2000946600195938BF53AE2C597069BE6BA2822CF99C4051F79387A017.92")</f>
+        <f>HYPERLINK("https://www1.gsis.gr/tameiakes/myweb/q1.php?SIG=DLD190046530035552635587E17D43E8DD13AB3FDE05CD4C4A5F4EA981E15.70")</f>
         <v/>
       </c>
     </row>
@@ -3912,17 +3877,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2022-07-11</t>
+          <t>2022-07-16</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>16.31€</t>
+          <t>14.57€</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2.12€</t>
+          <t>2.94€</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3950,12 +3915,12 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>15802</t>
+          <t>303130</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Τρόφιμα</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3973,21 +3938,21 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>094025817</t>
+          <t>094063140</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>"ΑΛΦΑ-ΒΗΤΑ" ΒΑΣΙΛΟΠΟΥΛΟΣ ΜΟΝΟΠΡΟΣΩΠΗ ΑΝΩΝΥΜΗ ΕΤΑΙΡΙΑ</t>
+          <t>Διαμαντής Μασούτης Α.Ε. ΣΟΥΠΕΡ ΜΑΡΚΕΤ</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>18.43€</t>
+          <t>17.51€</t>
         </is>
       </c>
       <c r="R42">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FGG1802063300544192C7185653B1C965B4EE87A5E1B8226CA7C0961A8018.43")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=DLD1900145200271178DC367007FBA309AC05A6262A6C7268D90E13361017.51")</f>
         <v/>
       </c>
     </row>
@@ -3997,17 +3962,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2022-07-18</t>
+          <t>2022-07-14</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>15.94€</t>
+          <t>14.44€</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2.56€</t>
+          <t>3.46€</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -4040,7 +4005,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Είδη</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -4058,21 +4023,21 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>107138885</t>
+          <t>081556781</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>ΣΚΟΥΡΑΣ ΝΙΚΟΛΑΟΣ ΤΟΥ ΓΕΩΡΓΙΟΥ</t>
+          <t>ΣΚΑΦΙΔΑΣ Ε - ΠΕΠΠΑ ΑΦΟΙ ΑΕ</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>18.5€</t>
+          <t>17.9€</t>
         </is>
       </c>
       <c r="R43">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FFP1900123500013112EC886845BCA7DB8119207279751AF55FB288CF1618.50")</f>
+        <f>HYPERLINK("https://www1.gsis.gr/tameiakes/myweb/q1.php?SIG=FFS1900841700027024893234F73A04959598BA715B007357F205A61B1F17.90")</f>
         <v/>
       </c>
     </row>
@@ -4082,17 +4047,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2022-07-03</t>
+          <t>2022-07-18</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>17.52€</t>
+          <t>15.34€</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2.28€</t>
+          <t>2.58€</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -4115,17 +4080,17 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ ΕΣΟΔΟΥ</t>
+          <t>ΑΠΟΔΕΙΞΗ ΠΑΡΟΧΗΣ ΥΠΗΡΕΣΙΩΝ - ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>195934</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Τρόφιμα</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -4143,21 +4108,21 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>046051263</t>
+          <t>800764388</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>ΚΩΤΣΗΣ ΔΗΜΗΤΡΙΟΣ  ΤΟΥ  ΗΡΑΚΛΗ</t>
+          <t>ΕΛΛΗΝΙΚΕΣ ΥΠΕΡΑΓΟΡΕΣ ΣΚΛΑΒΕΝΙΤΗΣ ΑΝΩΝΥΜΗ ΕΜΠΟΡΙΚΗ ΕΤΑΙΡΕΙΑ</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>19.8€</t>
+          <t>17.92€</t>
         </is>
       </c>
       <c r="R44">
-        <f>HYPERLINK("https://www1.gsis.gr/tameiakes/myweb/q1.php?SIG=DCI17012595000365716F5ACF4B5B938E70D948DDDD94497C0FC447F67219.80")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=DLD2000946600195938BF53AE2C597069BE6BA2822CF99C4051F79387A017.92")</f>
         <v/>
       </c>
     </row>
@@ -4167,17 +4132,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2022-07-02</t>
+          <t>2022-07-11</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>4.69€</t>
+          <t>16.31€</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.61€</t>
+          <t>2.12€</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -4200,17 +4165,17 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ ΕΣΟΔΟΥ</t>
+          <t>ΑΠΟΔΕΙΞΗ ΠΑΡΟΧΗΣ ΥΠΗΡΕΣΙΩΝ - ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15802</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Τρόφιμα</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -4228,21 +4193,21 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>800749072</t>
+          <t>094025817</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>ΠΕΤ ΣΙΤΙ GROUP ΑΝΩΝΥΜΟΣ ΕΜΠΟΡΙΚΗ ΚΑΙ ΒΙΟΜΗΧΑΝΙΚΗ ΕΤΑΙΡΕΙΑ ΖΩΟΤΡΟΦΩΝ ΑΕΒΕ</t>
+          <t>ΑΛΦΑ-ΒΗΤΑ ΒΑΣΙΛΟΠΟΥΛΟΣ ΜΟΝΟΠΡΟΣΩΠΗ ΑΝΩΝΥΜΗ ΕΤΑΙΡΙΑ</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>5.3€</t>
+          <t>18.43€</t>
         </is>
       </c>
       <c r="R45">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=CFC200004700002473721BD81639BFF67FCF928A8CCB7FD827216A923555.30")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FGG1802063300544192C7185653B1C965B4EE87A5E1B8226CA7C0961A8018.43")</f>
         <v/>
       </c>
     </row>
@@ -4252,17 +4217,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2022-07-19</t>
+          <t>2022-07-18</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>4.87€</t>
+          <t>15.94€</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.63€</t>
+          <t>2.56€</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -4295,7 +4260,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Είδη</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -4323,11 +4288,11 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>5.5€</t>
+          <t>18.5€</t>
         </is>
       </c>
       <c r="R46">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FFP190012350001319619CC2BF082E2363ECF0DCC1AD14DD0AFBA740D645.50")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FFP1900123500013112EC886845BCA7DB8119207279751AF55FB288CF1618.50")</f>
         <v/>
       </c>
     </row>
@@ -4337,17 +4302,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2022-07-06</t>
+          <t>2022-07-03</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>4.87€</t>
+          <t>17.52€</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.63€</t>
+          <t>2.28€</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -4370,17 +4335,17 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ (ΕΜΠΟΡΕΥΜΑΤΩΝ)</t>
+          <t>ΑΠΟΔΕΙΞΗ ΕΣΟΔΟΥ</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>3773</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Τρόφιμα</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4398,21 +4363,21 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>801200624</t>
+          <t>046051263</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>ΠΟΛΙΤΗΣ Δ - TCHOTCHIEVA R Ι.Κ.Ε.</t>
+          <t>ΚΩΤΣΗΣ ΔΗΜΗΤΡΙΟΣ ΤΟΥ ΗΡΑΚΛΗ</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>5.5€</t>
+          <t>19.8€</t>
         </is>
       </c>
       <c r="R47">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=DMC220001200000377270A36718D672710C141D88C88CA9164F4DA8EE445,50")</f>
+        <f>HYPERLINK("https://www1.gsis.gr/tameiakes/myweb/q1.php?SIG=DCI17012595000365716F5ACF4B5B938E70D948DDDD94497C0FC447F67219.80")</f>
         <v/>
       </c>
     </row>
@@ -4422,17 +4387,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2022-07-06</t>
+          <t>2022-07-02</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>5.12€</t>
+          <t>4.69€</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.68€</t>
+          <t>0.61€</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4455,17 +4420,17 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ (ΕΜΠΟΡΕΥΜΑΤΩΝ)</t>
+          <t>ΑΠΟΔΕΙΞΗ ΕΣΟΔΟΥ</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Είδη</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4483,21 +4448,21 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>094386010</t>
+          <t>800749072</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>PREMIER CAPITAL ΕΛΛΑΣ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ - Ίδρυση, Εκμετάλλευση και Λειτουργία Εστιατορίων</t>
+          <t>ΠΕΤ ΣΙΤΙ GROUP ΑΝΩΝΥΜΟΣ ΕΜΠΟΡΙΚΗ ΚΑΙ ΒΙΟΜΗΧΑΝΙΚΗ ΕΤΑΙΡΕΙΑ ΖΩΟΤΡΟΦΩΝ ΑΕΒΕ</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>5.8€</t>
+          <t>5.3€</t>
         </is>
       </c>
       <c r="R48">
-        <f>HYPERLINK("https://www1.gsis.gr/tameiakes/myweb/q1.php?SIG=DLD19004653003490786D4D2748828A294FBF8A16C4443DB36C83F12CA55.80")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=CFC200004700002473721BD81639BFF67FCF928A8CCB7FD827216A923555.30")</f>
         <v/>
       </c>
     </row>
@@ -4507,17 +4472,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2022-07-26</t>
+          <t>2022-07-19</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>5.24€</t>
+          <t>4.87€</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.68€</t>
+          <t>0.63€</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4540,17 +4505,17 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ (ΕΜΠΟΡΕΥΜΑΤΩΝ)</t>
+          <t>ΑΠΟΔΕΙΞΗ ΕΣΟΔΟΥ</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>678958</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Είδη</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4568,21 +4533,21 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>093683423</t>
+          <t>107138885</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Λίντλ Ελλάς και Σια Ομόρρυθμη Εταιρία</t>
+          <t>ΣΚΟΥΡΑΣ ΝΙΚΟΛΑΟΣ ΤΟΥ ΓΕΩΡΓΙΟΥ</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>5.92€</t>
+          <t>5.5€</t>
         </is>
       </c>
       <c r="R49">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=CCC18002312006942921351116AD322FC438CCD97B17C302109DAAB1B185.92")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FFP190012350001319619CC2BF082E2363ECF0DCC1AD14DD0AFBA740D645.50")</f>
         <v/>
       </c>
     </row>
@@ -4592,17 +4557,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2022-07-20</t>
+          <t>2022-07-06</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>4.84€</t>
+          <t>4.87€</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1.16€</t>
+          <t>0.63€</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4630,12 +4595,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t>3773</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4653,21 +4613,21 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>998462701</t>
+          <t>801200624</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>FLYING TIGER COPENHAGEN HELLAS ΜΟΝΟΠΡΟΣΩΠΗ Α.Ε.</t>
+          <t>ΠΟΛΙΤΗΣ Δ - TCHOTCHIEVA R Ι.Κ.Ε.</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>6.0€</t>
+          <t>5.5€</t>
         </is>
       </c>
       <c r="R50">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=CFA180010340014329171449DC3441BD8833BC7133A4E550FB7DF58B72C6.00")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=DMC220001200000377270A36718D672710C141D88C88CA9164F4DA8EE445,50")</f>
         <v/>
       </c>
     </row>
@@ -4677,17 +4637,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2022-07-18</t>
+          <t>2022-07-06</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>6.0€</t>
+          <t>5.12€</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.0€</t>
+          <t>0.68€</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4710,17 +4670,17 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ ΕΣΟΔΟΥ</t>
+          <t>ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ (ΕΜΠΟΡΕΥΜΑΤΩΝ)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>227</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Τρόφιμα</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4738,21 +4698,21 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>047326920</t>
+          <t>094386010</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>ΚΑΜΑΡΙΑΝΑΚΗ ΣΟΦΙΑ ΤΟΥ ΕΜΜΑΝΟΥΗΛ</t>
+          <t>PREMIER CAPITAL ΕΛΛΑΣ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ - Ίδρυση</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>6.0€</t>
+          <t>5.8€</t>
         </is>
       </c>
       <c r="R51">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=DLK19000523000688848EB899957C2F73A0F6B2221E234B115569C870C36.00")</f>
+        <f>HYPERLINK("https://www1.gsis.gr/tameiakes/myweb/q1.php?SIG=DLD19004653003490786D4D2748828A294FBF8A16C4443DB36C83F12CA55.80")</f>
         <v/>
       </c>
     </row>
@@ -4762,17 +4722,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2022-07-31</t>
+          <t>2022-07-26</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>5.58€</t>
+          <t>5.24€</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.72€</t>
+          <t>0.68€</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4800,12 +4760,12 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>23344</t>
+          <t>678958</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Τρόφιμα</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4823,21 +4783,21 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>801017485</t>
+          <t>093683423</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>ΓΑΛΑΝΗΣ ΒΑΣΙΛΕΙΟΣ ΚΑΙ ΣΙΑ Ο.Ε.</t>
+          <t>Λίντλ Ελλάς και Σια Ομόρρυθμη Εταιρία</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>6.3€</t>
+          <t>5.92€</t>
         </is>
       </c>
       <c r="R52">
-        <f>HYPERLINK("https://www1.gsis.gr/tameiakes/myweb/q1.php?SIG=DLD2101821500023518553FC1E83D58F6D9CF67DBE85E109DF9C5A7D8346.30")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=CCC18002312006942921351116AD322FC438CCD97B17C302109DAAB1B185.92")</f>
         <v/>
       </c>
     </row>
@@ -4847,17 +4807,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2022-07-20</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>5.28€</t>
+          <t>4.84€</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.27€</t>
+          <t>1.16€</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -4880,17 +4840,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ ΠΑΡΟΧΗΣ ΥΠΗΡΕΣΙΩΝ - ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ</t>
+          <t>ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ (ΕΜΠΟΡΕΥΜΑΤΩΝ)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>579714</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t>0</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4908,21 +4863,21 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>094173365</t>
+          <t>998462701</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>JUMBO ΑΝΩΝΥΜΗ ΕΜΠΟΡΙΚΗ ΕΤΑΙΡΕΙΑ</t>
+          <t>FLYING TIGER COPENHAGEN HELLAS ΜΟΝΟΠΡΟΣΩΠΗ Α.Ε.</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>6.55€</t>
+          <t>6.0€</t>
         </is>
       </c>
       <c r="R53">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FGG1802115900581007B9DBC6E9CF59ED8D8CB77CCA3F6DA9B6405B3B646.55")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=CFA180010340014329171449DC3441BD8833BC7133A4E550FB7DF58B72C6.00")</f>
         <v/>
       </c>
     </row>
@@ -4932,17 +4887,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2022-07-14</t>
+          <t>2022-07-18</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>5.83€</t>
+          <t>6.0€</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.93€</t>
+          <t>0.0€</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4965,17 +4920,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ ΠΑΡΟΧΗΣ ΥΠΗΡΕΣΙΩΝ - ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ</t>
+          <t>ΑΠΟΔΕΙΞΗ ΕΣΟΔΟΥ</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>20652</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t>0</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -4993,21 +4943,21 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>094025817</t>
+          <t>047326920</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>"ΑΛΦΑ-ΒΗΤΑ" ΒΑΣΙΛΟΠΟΥΛΟΣ ΜΟΝΟΠΡΟΣΩΠΗ ΑΝΩΝΥΜΗ ΕΤΑΙΡΙΑ</t>
+          <t>ΚΑΜΑΡΙΑΝΑΚΗ ΣΟΦΙΑ ΤΟΥ ΕΜΜΑΝΟΥΗΛ</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>6.76€</t>
+          <t>6.0€</t>
         </is>
       </c>
       <c r="R54">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FGG1802063300545496267B64070B1050283E4F8465F11F5BF5CDCD586B6.76")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=DLK19000523000688848EB899957C2F73A0F6B2221E234B115569C870C36.00")</f>
         <v/>
       </c>
     </row>
@@ -5017,17 +4967,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2022-07-26</t>
+          <t>2022-07-31</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>6.14€</t>
+          <t>5.58€</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.8€</t>
+          <t>0.72€</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -5055,12 +5005,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>34180</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t>23344</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -5078,21 +5023,21 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>094247924</t>
+          <t>801017485</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>ΑΝΩΝΥΜΗ ΕΙΣΑΓΩΓΙΚΗ ΕΞΑΓΩΓΙΚΗ - ΕΜΠΟΡΙΚΗ ΑΝΤΙΠΡΟΣΩΠΕΥΤΙΚΗ ΕΤΑΙΡΕΙΑ ΤΡΟΦΙΜΩΝ - ΕΙΔΩΝ ΟΙΚΙΑΚΗΣ ΧΡΗΣΕΩΣ - ΑΝΕΔΗΚ ΚΡΗΤΙΚΟΣ</t>
+          <t>ΓΑΛΑΝΗΣ ΒΑΣΙΛΕΙΟΣ ΚΑΙ ΣΙΑ Ο.Ε.</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>6.94€</t>
+          <t>6.3€</t>
         </is>
       </c>
       <c r="R55">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=DLD20011722000342708B6EEFDE4685B52AC51DDD2DB8BF6629CE4C0ACE6.94")</f>
+        <f>HYPERLINK("https://www1.gsis.gr/tameiakes/myweb/q1.php?SIG=DLD2101821500023518553FC1E83D58F6D9CF67DBE85E109DF9C5A7D8346.30")</f>
         <v/>
       </c>
     </row>
@@ -5102,17 +5047,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2022-07-09</t>
+          <t>2022-07-08</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>6.19€</t>
+          <t>5.28€</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.81€</t>
+          <t>1.27€</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -5135,17 +5080,17 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ (ΕΜΠΟΡΕΥΜΑΤΩΝ)</t>
+          <t>ΑΠΟΔΕΙΞΗ ΠΑΡΟΧΗΣ ΥΠΗΡΕΣΙΩΝ - ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>24789</t>
+          <t>579714</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Είδη</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -5163,21 +5108,21 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>125401718</t>
+          <t>094173365</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>ΔΑΗΣ ΝΙΚΟΛΑΟΣ TOY ΜΑΡΙΝΗ</t>
+          <t>JUMBO ΑΝΩΝΥΜΗ ΕΜΠΟΡΙΚΗ ΕΤΑΙΡΕΙΑ</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>7.0€</t>
+          <t>6.55€</t>
         </is>
       </c>
       <c r="R56">
-        <f>HYPERLINK(" https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=CFY2000355800024734FE1F6D449BD303F79CE7A8E348422C34B01FE96B7.00")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FGG1802115900581007B9DBC6E9CF59ED8D8CB77CCA3F6DA9B6405B3B646.55")</f>
         <v/>
       </c>
     </row>
@@ -5187,17 +5132,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2022-07-21</t>
+          <t>2022-07-14</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>6.42€</t>
+          <t>5.83€</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.84€</t>
+          <t>0.93€</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -5220,17 +5165,17 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ (ΕΜΠΟΡΕΥΜΑΤΩΝ)</t>
+          <t>ΑΠΟΔΕΙΞΗ ΠΑΡΟΧΗΣ ΥΠΗΡΕΣΙΩΝ - ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>439002</t>
+          <t>20652</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Τρόφιμα</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -5248,21 +5193,21 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>093683423</t>
+          <t>094025817</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Λίντλ Ελλάς και Σια Ομόρρυθμη Εταιρία</t>
+          <t>ΑΛΦΑ-ΒΗΤΑ ΒΑΣΙΛΟΠΟΥΛΟΣ ΜΟΝΟΠΡΟΣΩΠΗ ΑΝΩΝΥΜΗ ΕΤΑΙΡΙΑ</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>7.26€</t>
+          <t>6.76€</t>
         </is>
       </c>
       <c r="R57">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=CCC1800243200447432D6D07E4B2AEBEB1D5E5B3A6B80A435FBC2D7B4977.26")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FGG1802063300545496267B64070B1050283E4F8465F11F5BF5CDCD586B6.76")</f>
         <v/>
       </c>
     </row>
@@ -5272,17 +5217,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2022-07-06</t>
+          <t>2022-07-26</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>6.45€</t>
+          <t>6.14€</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.85€</t>
+          <t>0.8€</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -5310,12 +5255,12 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>34180</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Τρόφιμα</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -5333,21 +5278,21 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>094386010</t>
+          <t>094247924</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>PREMIER CAPITAL ΕΛΛΑΣ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ - Ίδρυση, Εκμετάλλευση και Λειτουργία Εστιατορίων</t>
+          <t>ΑΝΩΝΥΜΗ ΕΙΣΑΓΩΓΙΚΗ ΕΞΑΓΩΓΙΚΗ - ΕΜΠΟΡΙΚΗ ΑΝΤΙΠΡΟΣΩΠΕΥΤΙΚΗ ΕΤΑΙΡΕΙΑ ΤΡΟΦΙΜΩΝ - ΕΙΔΩΝ ΟΙΚΙΑΚΗΣ ΧΡΗΣΕΩΣ - ΑΝΕΔΗΚ ΚΡΗΤΙΚΟΣ</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>7.3€</t>
+          <t>6.94€</t>
         </is>
       </c>
       <c r="R58">
-        <f>HYPERLINK("https://www1.gsis.gr/tameiakes/myweb/q1.php?SIG=DLD1900465300349080FB64BDD056755EC87D4BF6E503CB797117F12DDE7.30")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=DLD20011722000342708B6EEFDE4685B52AC51DDD2DB8BF6629CE4C0ACE6.94")</f>
         <v/>
       </c>
     </row>
@@ -5357,17 +5302,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2022-07-30</t>
+          <t>2022-07-09</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>6.64€</t>
+          <t>6.19€</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.86€</t>
+          <t>0.81€</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -5395,12 +5340,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>142477</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t>24789</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -5418,21 +5358,21 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>800711217</t>
+          <t>125401718</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>ΔΗΜΗΤΡΙΟΣ ΤΣΟΥΚΑΡΗΣ ΜΟΝΟΠΡΟΣΩΠΗ Ι.Κ.Ε.</t>
+          <t>ΔΑΗΣ ΝΙΚΟΛΑΟΣ TOY ΜΑΡΙΝΗ</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>7.5€</t>
+          <t>7.0€</t>
         </is>
       </c>
       <c r="R59">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=DLD21019057000329457979D81F6C73A75507075FFAAEC362595410A7A17.50")</f>
+        <f>HYPERLINK(" https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=CFY2000355800024734FE1F6D449BD303F79CE7A8E348422C34B01FE96B7.00")</f>
         <v/>
       </c>
     </row>
@@ -5442,17 +5382,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2022-07-02</t>
+          <t>2022-07-21</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>6.05€</t>
+          <t>6.42€</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>1.45€</t>
+          <t>0.84€</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -5475,17 +5415,17 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ ΕΣΟΔΟΥ</t>
+          <t>ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ (ΕΜΠΟΡΕΥΜΑΤΩΝ)</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>439002</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Τρόφιμα</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -5503,21 +5443,21 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>062905064</t>
+          <t>093683423</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>ΔΗΜΗΤΡΙΟΣ ΛΙΑΚΑΚΟΣ</t>
+          <t>Λίντλ Ελλάς και Σια Ομόρρυθμη Εταιρία</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>7.5€</t>
+          <t>7.26€</t>
         </is>
       </c>
       <c r="R60">
-        <f>HYPERLINK("https://www1.gsis.gr/tameiakes/myweb/q1.php?SIG=WWW190026110008626215D761197FD93657A8830E899AD17936EACCEB9D7.50")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=CCC1800243200447432D6D07E4B2AEBEB1D5E5B3A6B80A435FBC2D7B4977.26")</f>
         <v/>
       </c>
     </row>
@@ -5527,17 +5467,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2022-07-03</t>
+          <t>2022-07-06</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>6.9€</t>
+          <t>6.45€</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.9€</t>
+          <t>0.85€</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -5560,17 +5500,17 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ ΕΣΟΔΟΥ</t>
+          <t>ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ (ΕΜΠΟΡΕΥΜΑΤΩΝ)</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>228</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Τρόφιμα</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5588,21 +5528,21 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>046051263</t>
+          <t>094386010</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>ΚΩΤΣΗΣ ΔΗΜΗΤΡΙΟΣ  ΤΟΥ  ΗΡΑΚΛΗ</t>
+          <t>PREMIER CAPITAL ΕΛΛΑΣ ΑΝΩΝΥΜΗ ΕΤΑΙΡΕΙΑ - Ίδρυση</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>7.8€</t>
+          <t>7.3€</t>
         </is>
       </c>
       <c r="R61">
-        <f>HYPERLINK("https://www1.gsis.gr/tameiakes/myweb/q1.php?SIG=DCI1701259500036608917213F468E50AB944E488A778480F145B71E34E7.80")</f>
+        <f>HYPERLINK("https://www1.gsis.gr/tameiakes/myweb/q1.php?SIG=DLD1900465300349080FB64BDD056755EC87D4BF6E503CB797117F12DDE7.30")</f>
         <v/>
       </c>
     </row>
@@ -5612,17 +5552,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2022-07-02</t>
+          <t>2022-07-30</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>6.98€</t>
+          <t>6.64€</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1.41€</t>
+          <t>0.86€</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -5645,17 +5585,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ ΕΣΟΔΟΥ</t>
+          <t>ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ (ΕΜΠΟΡΕΥΜΑΤΩΝ)</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t>142477</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -5673,21 +5608,21 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>055627186</t>
+          <t>800711217</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>ΤΣΟΥΚΝΙΔΑ ΚΩΝΣΤΑΝΤΙΝΑ ΤΟΥ ΧΑΡΑΛΑΜΠΟΥΣ</t>
+          <t>ΔΗΜΗΤΡΙΟΣ ΤΣΟΥΚΑΡΗΣ ΜΟΝΟΠΡΟΣΩΠΗ Ι.Κ.Ε.</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>8.39€</t>
+          <t>7.5€</t>
         </is>
       </c>
       <c r="R62">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=DLQ2200281700032141DCF1B761634A820783B2D7EF35B8FF968F8727998.39")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=DLD21019057000329457979D81F6C73A75507075FFAAEC362595410A7A17.50")</f>
         <v/>
       </c>
     </row>
@@ -5697,17 +5632,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2022-07-02</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>7.44€</t>
+          <t>6.05€</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.96€</t>
+          <t>1.45€</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -5730,17 +5665,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ (ΕΜΠΟΡΕΥΜΑΤΩΝ)</t>
+          <t>ΑΠΟΔΕΙΞΗ ΕΣΟΔΟΥ</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>68854</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t>0</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5758,21 +5688,21 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>094471750</t>
+          <t>062905064</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>ΧΑΡΑΛΑΜΠΟΣ ΒΕΝΕΤΗΣ ΑΝΩΝΥΜΗ ΒΙΟΜΗΧΑΝΙΚΗ &amp; ΕΜΠΟΡΙΚΗ ΕΤΑΙΡΕΙΑ ΑΡΤΟΠΟΙΙΑΣ - ΖΑΧΑΡΟΠΛΑΣΤΙΚΗΣ</t>
+          <t>ΔΗΜΗΤΡΙΟΣ ΛΙΑΚΑΚΟΣ</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>8.4€</t>
+          <t>7.5€</t>
         </is>
       </c>
       <c r="R63">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=CCC19003753005964877814324DF7824C836ECA4A52BDC8FE8FCF8886F48,40")</f>
+        <f>HYPERLINK("https://www1.gsis.gr/tameiakes/myweb/q1.php?SIG=WWW190026110008626215D761197FD93657A8830E899AD17936EACCEB9D7.50")</f>
         <v/>
       </c>
     </row>
@@ -5782,17 +5712,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2022-07-20</t>
+          <t>2022-07-03</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>7.43€</t>
+          <t>6.9€</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.97€</t>
+          <t>0.9€</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -5815,17 +5745,17 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ ΠΑΡΟΧΗΣ ΥΠΗΡΕΣΙΩΝ - ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ</t>
+          <t>ΑΠΟΔΕΙΞΗ ΕΣΟΔΟΥ</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>195659</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Τρόφιμα</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5843,21 +5773,21 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>094063140</t>
+          <t>046051263</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Διαμαντής Μασούτης Α.Ε. ΣΟΥΠΕΡ ΜΑΡΚΕΤ</t>
+          <t>ΚΩΤΣΗΣ ΔΗΜΗΤΡΙΟΣ ΤΟΥ ΗΡΑΚΛΗ</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>8.4€</t>
+          <t>7.8€</t>
         </is>
       </c>
       <c r="R64">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=DLD19001452002726851348DDC69CB4CB767A6E73BA2705397408EC89DB8.40")</f>
+        <f>HYPERLINK("https://www1.gsis.gr/tameiakes/myweb/q1.php?SIG=DCI1701259500036608917213F468E50AB944E488A778480F145B71E34E7.80")</f>
         <v/>
       </c>
     </row>
@@ -5867,17 +5797,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2022-07-25</t>
+          <t>2022-07-02</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>8.13€</t>
+          <t>6.98€</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.07€</t>
+          <t>1.41€</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -5900,17 +5830,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ (ΕΜΠΟΡΕΥΜΑΤΩΝ)</t>
+          <t>ΑΠΟΔΕΙΞΗ ΕΣΟΔΟΥ</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>1328299</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t>0</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -5928,21 +5853,21 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>997981214</t>
+          <t>055627186</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>EVERSTORY ΑΝΩΝΥΜΟΣ ΕΤΑΙΡΕΙΑ ΕΙΔΩΝ ΔΙΑΤΡΟΦΗΣ</t>
+          <t>ΤΣΟΥΚΝΙΔΑ ΚΩΝΣΤΑΝΤΙΝΑ ΤΟΥ ΧΑΡΑΛΑΜΠΟΥΣ</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>9.2€</t>
+          <t>8.39€</t>
         </is>
       </c>
       <c r="R65">
-        <f>HYPERLINK("https://www1.gsis.gr/tameiakes/myweb/q1.php?SIG=DLD1900354000269468CEE486DC3A9074C7C55E900FF43630FD91BAEB749.20")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=DLQ2200281700032141DCF1B761634A820783B2D7EF35B8FF968F8727998.39")</f>
         <v/>
       </c>
     </row>
@@ -5952,145 +5877,347 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>2022-07-08</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>7.44€</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.96€</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ (ΕΜΠΟΡΕΥΜΑΤΩΝ)</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>68854</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Τρόφιμα</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>998727941</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>ΤΑΝΤΕΜ ΑΣΤΙΚΗ ΜΗ ΚΕΡΔΟΣΚΟΠΙΚΗ ΕΤΑΙΡΕΙΑ</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>1</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>094471750</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>ΒΕΝΕΤΗΣ ΑΝΩΝΥΜΗ ΒΙΟΜΗΧΑΝΙΚΗ ΚΑΙ ΕΜΠΟΡΙΚΗ ΕΤΑΙΡΕΙΑ ΤΡΟΦΙΜΩΝ</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>8.4€</t>
+        </is>
+      </c>
+      <c r="R66">
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=CCC19003753005964877814324DF7824C836ECA4A52BDC8FE8FCF8886F48,40")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2022-07-20</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>7.43€</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.97€</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ ΠΑΡΟΧΗΣ ΥΠΗΡΕΣΙΩΝ - ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>195659</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Τρόφιμα</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>998727941</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>ΤΑΝΤΕΜ ΑΣΤΙΚΗ ΜΗ ΚΕΡΔΟΣΚΟΠΙΚΗ ΕΤΑΙΡΕΙΑ</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>1</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>094063140</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Διαμαντής Μασούτης Α.Ε. ΣΟΥΠΕΡ ΜΑΡΚΕΤ</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>8.4€</t>
+        </is>
+      </c>
+      <c r="R67">
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=DLD19001452002726851348DDC69CB4CB767A6E73BA2705397408EC89DB8.40")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2022-07-25</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>8.13€</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.07€</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>ΑΠΟΔΕΙΞΗ ΛΙΑΝΙΚΗΣ ΠΩΛΗΣΗΣ (ΕΜΠΟΡΕΥΜΑΤΩΝ)</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>1328299</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>998727941</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>ΤΑΝΤΕΜ ΑΣΤΙΚΗ ΜΗ ΚΕΡΔΟΣΚΟΠΙΚΗ ΕΤΑΙΡΕΙΑ</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>1</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>997981214</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>EVERSTORY ΑΝΩΝΥΜΟΣ ΕΤΑΙΡΕΙΑ ΕΙΔΩΝ ΔΙΑΤΡΟΦΗΣ</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>9.2€</t>
+        </is>
+      </c>
+      <c r="R68">
+        <f>HYPERLINK("https://www1.gsis.gr/tameiakes/myweb/q1.php?SIG=DLD1900354000269468CEE486DC3A9074C7C55E900FF43630FD91BAEB749.20")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
           <t>2022-07-28</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>80.44€</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>18.84€</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G66" t="n">
-        <v>1</v>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>ΤΙΜΟΛΟΓΙΟ (Πώληση Αγαθών) - ΔΕΛΤΙΟ ΑΠΟΣΤΟΛΗΣ</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>905</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>998727941</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>ΤΑΝΤΕΜ ΑΣΤΙΚΗ ΜΗ ΚΕΡΔΟΣΚΟΠΙΚΗ ΕΤΑΙΡΕΙΑ</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
-        <v>1</v>
-      </c>
-      <c r="O66" t="inlineStr">
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Είδη</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>998727941</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>ΤΑΝΤΕΜ ΑΣΤΙΚΗ ΜΗ ΚΕΡΔΟΣΚΟΠΙΚΗ ΕΤΑΙΡΕΙΑ</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>1</v>
+      </c>
+      <c r="O69" t="inlineStr">
         <is>
           <t>094173365</t>
         </is>
       </c>
-      <c r="P66" t="inlineStr">
+      <c r="P69" t="inlineStr">
         <is>
           <t>JUMBO ΑΝΩΝΥΜΗ ΕΜΠΟΡΙΚΗ ΕΤΑΙΡΕΙΑ</t>
         </is>
       </c>
-      <c r="Q66" t="inlineStr">
+      <c r="Q69" t="inlineStr">
         <is>
           <t>99.28€</t>
         </is>
       </c>
-      <c r="R66">
+      <c r="R69">
         <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=DLD19005285002208265F99659654B9E763D36AA19AE9C43243A266457699.28")</f>
         <v/>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr"/>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr"/>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr">
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
         <is>
           <t>ERRORS</t>
         </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C69">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=CFT190019470000402476FE7EE5F8ED5C7B74A2FA188F56E5A565A40A3E76.94")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C70">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=CFC1700002700163491669FD73C3934F1003DC57AD2AB2E3CD5F9BC17F699.98")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="C71">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FGG18023091003987377586A1D509820CE14E65EEC7DDB868DCCDFB0F5F109.02")</f>
-        <v/>
       </c>
     </row>
     <row r="72">
@@ -6105,7 +6232,7 @@
         </is>
       </c>
       <c r="C72">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FGG180230910039613155B9F4D0423FFAAA5CCB62A105F531BE6E2FAACB50.00")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=CFT190019470000402476FE7EE5F8ED5C7B74A2FA188F56E5A565A40A3E76.94")</f>
         <v/>
       </c>
     </row>
@@ -6121,7 +6248,7 @@
         </is>
       </c>
       <c r="C73">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FGG1601417800417343C1B45201A3AD3611666D6FB3C348386B00C3EC7557.20")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=CFC1700002700163491669FD73C3934F1003DC57AD2AB2E3CD5F9BC17F699.98")</f>
         <v/>
       </c>
     </row>
@@ -6137,7 +6264,7 @@
         </is>
       </c>
       <c r="C74">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FGG16014755009433291455DC5D4F7B3B575165FA4A36F9066EA628007F30.29")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FGG18023091003987377586A1D509820CE14E65EEC7DDB868DCCDFB0F5F109.02")</f>
         <v/>
       </c>
     </row>
@@ -6153,7 +6280,7 @@
         </is>
       </c>
       <c r="C75">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FGG17017840008167971A12A6DC7DBF2C6078EC93F6B3C3BD936711815034.56")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FGG180230910039613155B9F4D0423FFAAA5CCB62A105F531BE6E2FAACB50.00")</f>
         <v/>
       </c>
     </row>
@@ -6169,7 +6296,7 @@
         </is>
       </c>
       <c r="C76">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FGG16015477000107761570A9F38E32376E44C234EB1B2747CF9973305336.00")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FGG1601417800417343C1B45201A3AD3611666D6FB3C348386B00C3EC7557.20")</f>
         <v/>
       </c>
     </row>
@@ -6185,7 +6312,7 @@
         </is>
       </c>
       <c r="C77">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FGG1701784000819243A5A99C70D64067BEC5B2B485E7E4F87A4BE87E5620.77")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FGG16014755009433291455DC5D4F7B3B575165FA4A36F9066EA628007F30.29")</f>
         <v/>
       </c>
     </row>
@@ -6201,7 +6328,7 @@
         </is>
       </c>
       <c r="C78">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=CCC180023690009694079BE0FC71DCAC3FC234097C168D38D13BF44DCAA20.82")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FGG17017840008167971A12A6DC7DBF2C6078EC93F6B3C3BD936711815034.56")</f>
         <v/>
       </c>
     </row>
@@ -6217,7 +6344,7 @@
         </is>
       </c>
       <c r="C79">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FFZ2000797400109833BB78728ACF12B622431011756BB540D711ED84D124.60")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FGG1701784000819243A5A99C70D64067BEC5B2B485E7E4F87A4BE87E5620.77")</f>
         <v/>
       </c>
     </row>
@@ -6233,7 +6360,7 @@
         </is>
       </c>
       <c r="C80">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=DLQ1900044500019122E7435B03A357F776824C541B5A232A4E8E40708129.90")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=CCC180023690009694079BE0FC71DCAC3FC234097C168D38D13BF44DCAA20.82")</f>
         <v/>
       </c>
     </row>
@@ -6249,7 +6376,7 @@
         </is>
       </c>
       <c r="C81">
-        <f>HYPERLINK("www1.aade.gr/tameiakes/myweb/q1.php?SIG=CCF1800573800114273AEFDFEBA6DAACE5271F106B77BA4BDBF82AF10C810,30")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FFZ2000797400109833BB78728ACF12B622431011756BB540D711ED84D124.60")</f>
         <v/>
       </c>
     </row>
@@ -6265,7 +6392,7 @@
         </is>
       </c>
       <c r="C82">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FGG160143460033188279FAE5720F64264D2B870E46929123E34705E58610.41")</f>
+        <f>HYPERLINK("www1.aade.gr/tameiakes/myweb/q1.php?SIG=CCF1800573800114273AEFDFEBA6DAACE5271F106B77BA4BDBF82AF10C810,30")</f>
         <v/>
       </c>
     </row>
@@ -6281,7 +6408,7 @@
         </is>
       </c>
       <c r="C83">
-        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=DLH2000327900088021AFF0F4B9D265F62338F2E1EEA85D800A1EBA148510.80")</f>
+        <f>HYPERLINK("https://www1.aade.gr/tameiakes/myweb/q1.php?SIG=FGG160143460033188279FAE5720F64264D2B870E46929123E34705E58610.41")</f>
         <v/>
       </c>
     </row>
